--- a/src/public/files/sample-create-subjects.xlsx
+++ b/src/public/files/sample-create-subjects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\web\nodejs\DACN\PC3_App\src\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A988ABA-3963-4997-81F2-954850D6A397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E090AF51-2F95-4AC0-9DD4-4DCA2ADF245A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1344" yWindow="240" windowWidth="20628" windowHeight="11328" xr2:uid="{ACA4A631-7668-4624-8DB6-0BF0E4D74A08}"/>
+    <workbookView xWindow="912" yWindow="636" windowWidth="20628" windowHeight="11328" xr2:uid="{ACA4A631-7668-4624-8DB6-0BF0E4D74A08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>book</t>
+  </si>
+  <si>
+    <t>Liên kết ảnh bìa</t>
   </si>
 </sst>
 </file>
@@ -464,7 +467,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,6 +476,7 @@
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.109375" customWidth="1"/>
     <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
     <col min="6" max="6" width="78.5546875" customWidth="1"/>
     <col min="7" max="7" width="15.5546875" customWidth="1"/>
     <col min="8" max="8" width="12.88671875" customWidth="1"/>
@@ -493,6 +497,9 @@
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>7</v>
